--- a/Code/Results/Cases/Case_5_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_126/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036518246747105</v>
+        <v>1.067515367707383</v>
       </c>
       <c r="D2">
-        <v>1.049435467686939</v>
+        <v>1.066648265962145</v>
       </c>
       <c r="E2">
-        <v>1.043033099365119</v>
+        <v>1.071631246931135</v>
       </c>
       <c r="F2">
-        <v>1.04748702412252</v>
+        <v>1.081017199031097</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064397597178015</v>
+        <v>1.056387605843959</v>
       </c>
       <c r="J2">
-        <v>1.057658987294202</v>
+        <v>1.07245987330346</v>
       </c>
       <c r="K2">
-        <v>1.060246512262409</v>
+        <v>1.069358249899161</v>
       </c>
       <c r="L2">
-        <v>1.053923782982109</v>
+        <v>1.074327906346831</v>
       </c>
       <c r="M2">
-        <v>1.058322177041232</v>
+        <v>1.083689120700721</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.043881346863237</v>
+        <v>1.068928090650741</v>
       </c>
       <c r="D3">
-        <v>1.055320581357806</v>
+        <v>1.067776926209492</v>
       </c>
       <c r="E3">
-        <v>1.049754926222623</v>
+        <v>1.072950565568603</v>
       </c>
       <c r="F3">
-        <v>1.054912102893728</v>
+        <v>1.082508504673063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067665314686089</v>
+        <v>1.056912375903674</v>
       </c>
       <c r="J3">
-        <v>1.0632432672839</v>
+        <v>1.073526819397443</v>
       </c>
       <c r="K3">
-        <v>1.065291369727179</v>
+        <v>1.070301762635522</v>
       </c>
       <c r="L3">
-        <v>1.059788431297132</v>
+        <v>1.075462574503107</v>
       </c>
       <c r="M3">
-        <v>1.064887466505003</v>
+        <v>1.084997162449741</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.048500234061827</v>
+        <v>1.069840582125224</v>
       </c>
       <c r="D4">
-        <v>1.059014141529161</v>
+        <v>1.068505779158424</v>
       </c>
       <c r="E4">
-        <v>1.053972296153472</v>
+        <v>1.073802457860656</v>
       </c>
       <c r="F4">
-        <v>1.059574662691892</v>
+        <v>1.0834720702397</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069702349798238</v>
+        <v>1.057249789916709</v>
       </c>
       <c r="J4">
-        <v>1.066739712637897</v>
+        <v>1.074215097625616</v>
       </c>
       <c r="K4">
-        <v>1.068448903226014</v>
+        <v>1.070910227125935</v>
       </c>
       <c r="L4">
-        <v>1.063460202264736</v>
+        <v>1.076194438545746</v>
       </c>
       <c r="M4">
-        <v>1.069003554294546</v>
+        <v>1.0858416276603</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.050409122570205</v>
+        <v>1.070223809267358</v>
       </c>
       <c r="D5">
-        <v>1.060540969190673</v>
+        <v>1.068811843006533</v>
       </c>
       <c r="E5">
-        <v>1.055715378886237</v>
+        <v>1.074160170210608</v>
       </c>
       <c r="F5">
-        <v>1.061502717102905</v>
+        <v>1.083876823210908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070541098190745</v>
+        <v>1.057391127720014</v>
       </c>
       <c r="J5">
-        <v>1.068183098554673</v>
+        <v>1.074503950797301</v>
       </c>
       <c r="K5">
-        <v>1.069752086573772</v>
+        <v>1.071165539234297</v>
       </c>
       <c r="L5">
-        <v>1.064975916455162</v>
+        <v>1.076501559590204</v>
       </c>
       <c r="M5">
-        <v>1.070704050369635</v>
+        <v>1.086196186617422</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.050727758174436</v>
+        <v>1.070288132461975</v>
       </c>
       <c r="D6">
-        <v>1.060795849232702</v>
+        <v>1.06886321233133</v>
       </c>
       <c r="E6">
-        <v>1.056006344325214</v>
+        <v>1.074220207063781</v>
       </c>
       <c r="F6">
-        <v>1.06182461670206</v>
+        <v>1.083944763876281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070680919402223</v>
+        <v>1.05741482907846</v>
       </c>
       <c r="J6">
-        <v>1.06842393500417</v>
+        <v>1.074552421413199</v>
       </c>
       <c r="K6">
-        <v>1.069969511753617</v>
+        <v>1.071208378877077</v>
       </c>
       <c r="L6">
-        <v>1.065228818494977</v>
+        <v>1.076553094219964</v>
       </c>
       <c r="M6">
-        <v>1.070987864601882</v>
+        <v>1.086255692184815</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.048525867510728</v>
+        <v>1.069845704326204</v>
       </c>
       <c r="D7">
-        <v>1.059034643171925</v>
+        <v>1.068509870151679</v>
       </c>
       <c r="E7">
-        <v>1.053995702620064</v>
+        <v>1.073807239285193</v>
       </c>
       <c r="F7">
-        <v>1.059600549129553</v>
+        <v>1.083477479856299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069713625290372</v>
+        <v>1.057251680483692</v>
       </c>
       <c r="J7">
-        <v>1.066759101570309</v>
+        <v>1.07421895924976</v>
       </c>
       <c r="K7">
-        <v>1.068466410009753</v>
+        <v>1.070913640524048</v>
       </c>
       <c r="L7">
-        <v>1.063480562967514</v>
+        <v>1.076198544483796</v>
       </c>
       <c r="M7">
-        <v>1.06902639175855</v>
+        <v>1.085846367070904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039038001341154</v>
+        <v>1.067993146799554</v>
       </c>
       <c r="D8">
-        <v>1.051449001029987</v>
+        <v>1.067030008455863</v>
       </c>
       <c r="E8">
-        <v>1.045333211059329</v>
+        <v>1.072077492496161</v>
       </c>
       <c r="F8">
-        <v>1.050026955011388</v>
+        <v>1.081521488884435</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065518534607883</v>
+        <v>1.056565400780958</v>
       </c>
       <c r="J8">
-        <v>1.059571369470509</v>
+        <v>1.072820892358421</v>
       </c>
       <c r="K8">
-        <v>1.061974402400908</v>
+        <v>1.069677542046553</v>
       </c>
       <c r="L8">
-        <v>1.055932228310181</v>
+        <v>1.074711861403927</v>
       </c>
       <c r="M8">
-        <v>1.060569378648955</v>
+        <v>1.084131582214221</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.021107253769813</v>
+        <v>1.06471586511701</v>
       </c>
       <c r="D9">
-        <v>1.037132050797629</v>
+        <v>1.064410854184381</v>
       </c>
       <c r="E9">
-        <v>1.028970978395075</v>
+        <v>1.069015413720005</v>
       </c>
       <c r="F9">
-        <v>1.031974971056081</v>
+        <v>1.07806366419784</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057488189259881</v>
+        <v>1.055339506423568</v>
       </c>
       <c r="J9">
-        <v>1.045936062052898</v>
+        <v>1.070340934330664</v>
       </c>
       <c r="K9">
-        <v>1.049650102115194</v>
+        <v>1.067483454796774</v>
       </c>
       <c r="L9">
-        <v>1.041610879881231</v>
+        <v>1.072073923242188</v>
       </c>
       <c r="M9">
-        <v>1.044569735774857</v>
+        <v>1.081094865979734</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008184662256619</v>
+        <v>1.062521931227502</v>
       </c>
       <c r="D10">
-        <v>1.026833215224424</v>
+        <v>1.062656738991819</v>
       </c>
       <c r="E10">
-        <v>1.017188782328805</v>
+        <v>1.066964169941332</v>
       </c>
       <c r="F10">
-        <v>1.018995721412212</v>
+        <v>1.075750511212564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051634082115077</v>
+        <v>1.054510903166257</v>
       </c>
       <c r="J10">
-        <v>1.036077270775784</v>
+        <v>1.068676265371208</v>
       </c>
       <c r="K10">
-        <v>1.040734319171913</v>
+        <v>1.066009723804426</v>
       </c>
       <c r="L10">
-        <v>1.031254471703409</v>
+        <v>1.070302666590072</v>
       </c>
       <c r="M10">
-        <v>1.033030268159183</v>
+        <v>1.079059849365235</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002318600035282</v>
+        <v>1.061569679915808</v>
       </c>
       <c r="D11">
-        <v>1.022164423093963</v>
+        <v>1.061895216553062</v>
       </c>
       <c r="E11">
-        <v>1.011843824086479</v>
+        <v>1.066073527469757</v>
       </c>
       <c r="F11">
-        <v>1.013111999783532</v>
+        <v>1.074746904804482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048961606967294</v>
+        <v>1.054149375934799</v>
       </c>
       <c r="J11">
-        <v>1.031595239635176</v>
+        <v>1.067952672221851</v>
       </c>
       <c r="K11">
-        <v>1.036680115380922</v>
+        <v>1.065368904136723</v>
       </c>
       <c r="L11">
-        <v>1.026545787064119</v>
+        <v>1.069532610462939</v>
       </c>
       <c r="M11">
-        <v>1.027790807992196</v>
+        <v>1.078176070253452</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00009500347225</v>
+        <v>1.061215622603975</v>
       </c>
       <c r="D12">
-        <v>1.020395763340298</v>
+        <v>1.061612049704285</v>
       </c>
       <c r="E12">
-        <v>1.009818378069427</v>
+        <v>1.065742328453263</v>
       </c>
       <c r="F12">
-        <v>1.010882994616333</v>
+        <v>1.07437381186506</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047946385741389</v>
+        <v>1.054014673706316</v>
       </c>
       <c r="J12">
-        <v>1.02989534312489</v>
+        <v>1.067683472977029</v>
       </c>
       <c r="K12">
-        <v>1.035142373747483</v>
+        <v>1.065130465984983</v>
       </c>
       <c r="L12">
-        <v>1.02475986029429</v>
+        <v>1.069246105508211</v>
       </c>
       <c r="M12">
-        <v>1.02580462212515</v>
+        <v>1.077847395950543</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000574065385436</v>
+        <v>1.061291585022746</v>
       </c>
       <c r="D13">
-        <v>1.020776759260856</v>
+        <v>1.061672803788888</v>
       </c>
       <c r="E13">
-        <v>1.010254719715169</v>
+        <v>1.0658133888555</v>
       </c>
       <c r="F13">
-        <v>1.011363162492476</v>
+        <v>1.074453855687239</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048165207201287</v>
+        <v>1.054043586628528</v>
       </c>
       <c r="J13">
-        <v>1.03026161734677</v>
+        <v>1.067741236449419</v>
       </c>
       <c r="K13">
-        <v>1.035473713068973</v>
+        <v>1.065181630389944</v>
       </c>
       <c r="L13">
-        <v>1.025144674432091</v>
+        <v>1.069307583266171</v>
       </c>
       <c r="M13">
-        <v>1.026232538775798</v>
+        <v>1.077917915910561</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002135733676437</v>
+        <v>1.061540420593539</v>
       </c>
       <c r="D14">
-        <v>1.022018947044467</v>
+        <v>1.061871816120465</v>
       </c>
       <c r="E14">
-        <v>1.011677240213982</v>
+        <v>1.066046158147571</v>
       </c>
       <c r="F14">
-        <v>1.01292866211382</v>
+        <v>1.074716071177982</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04887816010803</v>
+        <v>1.054138249892751</v>
       </c>
       <c r="J14">
-        <v>1.031455460242766</v>
+        <v>1.067930428828082</v>
       </c>
       <c r="K14">
-        <v>1.036553671694716</v>
+        <v>1.065349203146411</v>
       </c>
       <c r="L14">
-        <v>1.026398934948522</v>
+        <v>1.069508937542847</v>
       </c>
       <c r="M14">
-        <v>1.02762746779292</v>
+        <v>1.078148910128409</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003091878135575</v>
+        <v>1.061693689923256</v>
       </c>
       <c r="D15">
-        <v>1.022779636204852</v>
+        <v>1.061994393782385</v>
       </c>
       <c r="E15">
-        <v>1.012548275071189</v>
+        <v>1.066189525089611</v>
       </c>
       <c r="F15">
-        <v>1.013887323566403</v>
+        <v>1.074877589602977</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049314386184906</v>
+        <v>1.054196519959848</v>
       </c>
       <c r="J15">
-        <v>1.03218628060609</v>
+        <v>1.068046940038118</v>
       </c>
       <c r="K15">
-        <v>1.037214763684912</v>
+        <v>1.065452395852966</v>
       </c>
       <c r="L15">
-        <v>1.02716673146209</v>
+        <v>1.06963293581071</v>
       </c>
       <c r="M15">
-        <v>1.028481512797912</v>
+        <v>1.078291180118932</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.008567941986516</v>
+        <v>1.062585080579933</v>
       </c>
       <c r="D16">
-        <v>1.027138409205077</v>
+        <v>1.062707236506136</v>
       </c>
       <c r="E16">
-        <v>1.017538093337172</v>
+        <v>1.067023226842337</v>
       </c>
       <c r="F16">
-        <v>1.019380327598947</v>
+        <v>1.075817074448948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051808392238689</v>
+        <v>1.054534838559841</v>
       </c>
       <c r="J16">
-        <v>1.036369987144511</v>
+        <v>1.06872422870491</v>
       </c>
       <c r="K16">
-        <v>1.040999078464101</v>
+        <v>1.066052195835897</v>
       </c>
       <c r="L16">
-        <v>1.031561981451294</v>
+        <v>1.070353706927716</v>
       </c>
       <c r="M16">
-        <v>1.03337258711851</v>
+        <v>1.079118447319322</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011927828653624</v>
+        <v>1.063143614263223</v>
       </c>
       <c r="D17">
-        <v>1.02981450560179</v>
+        <v>1.063153849730672</v>
       </c>
       <c r="E17">
-        <v>1.020600603200378</v>
+        <v>1.067545526862393</v>
       </c>
       <c r="F17">
-        <v>1.022752758064609</v>
+        <v>1.076405847799309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053334730970763</v>
+        <v>1.054746321566115</v>
       </c>
       <c r="J17">
-        <v>1.038935230841302</v>
+        <v>1.069148324793548</v>
       </c>
       <c r="K17">
-        <v>1.043319221236793</v>
+        <v>1.066427711678792</v>
       </c>
       <c r="L17">
-        <v>1.034256819730154</v>
+        <v>1.070804994939156</v>
       </c>
       <c r="M17">
-        <v>1.03637327300638</v>
+        <v>1.079636667348151</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013861795317591</v>
+        <v>1.063469179712743</v>
       </c>
       <c r="D18">
-        <v>1.031355453917956</v>
+        <v>1.063414161146432</v>
       </c>
       <c r="E18">
-        <v>1.022363713088944</v>
+        <v>1.067849940717616</v>
       </c>
       <c r="F18">
-        <v>1.024694695580425</v>
+        <v>1.076749077367917</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054211880286489</v>
+        <v>1.054869412245329</v>
       </c>
       <c r="J18">
-        <v>1.040411158932597</v>
+        <v>1.069395425050571</v>
       </c>
       <c r="K18">
-        <v>1.044654044263972</v>
+        <v>1.066646485109738</v>
       </c>
       <c r="L18">
-        <v>1.035807271170672</v>
+        <v>1.071067925943708</v>
       </c>
       <c r="M18">
-        <v>1.038100359139634</v>
+        <v>1.079938685685195</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014516966028065</v>
+        <v>1.063580152437737</v>
       </c>
       <c r="D19">
-        <v>1.03187757467185</v>
+        <v>1.063502888482465</v>
       </c>
       <c r="E19">
-        <v>1.022961053094444</v>
+        <v>1.067953698374792</v>
       </c>
       <c r="F19">
-        <v>1.025352691850528</v>
+        <v>1.076866077490465</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05450878984999</v>
+        <v>1.054911338358063</v>
       </c>
       <c r="J19">
-        <v>1.040911049204562</v>
+        <v>1.069479634630707</v>
       </c>
       <c r="K19">
-        <v>1.045106127762815</v>
+        <v>1.0667210375091</v>
       </c>
       <c r="L19">
-        <v>1.036332395555566</v>
+        <v>1.071157528360653</v>
       </c>
       <c r="M19">
-        <v>1.038685421856217</v>
+        <v>1.080041623868968</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011570040508693</v>
+        <v>1.063083711475981</v>
       </c>
       <c r="D20">
-        <v>1.02952947221952</v>
+        <v>1.063105952109838</v>
       </c>
       <c r="E20">
-        <v>1.020274448750129</v>
+        <v>1.067489513369828</v>
       </c>
       <c r="F20">
-        <v>1.022393555624724</v>
+        <v>1.076342697911817</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053172340938758</v>
+        <v>1.054723658752446</v>
       </c>
       <c r="J20">
-        <v>1.038662128582921</v>
+        <v>1.069102851047567</v>
       </c>
       <c r="K20">
-        <v>1.043072221676743</v>
+        <v>1.066387449174327</v>
       </c>
       <c r="L20">
-        <v>1.033969924659098</v>
+        <v>1.070756606849202</v>
       </c>
       <c r="M20">
-        <v>1.036053747744169</v>
+        <v>1.079581093227884</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00167712994561</v>
+        <v>1.061467154418255</v>
       </c>
       <c r="D21">
-        <v>1.021654131304215</v>
+        <v>1.061813220377338</v>
       </c>
       <c r="E21">
-        <v>1.011259481071421</v>
+        <v>1.065977623802939</v>
       </c>
       <c r="F21">
-        <v>1.012468897330175</v>
+        <v>1.07463886384923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048668851911878</v>
+        <v>1.054110385405138</v>
       </c>
       <c r="J21">
-        <v>1.031104898016209</v>
+        <v>1.067874728162012</v>
       </c>
       <c r="K21">
-        <v>1.036236553366939</v>
+        <v>1.065299868489595</v>
       </c>
       <c r="L21">
-        <v>1.026030633462115</v>
+        <v>1.06944965681242</v>
       </c>
       <c r="M21">
-        <v>1.027217831508739</v>
+        <v>1.078080899180299</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9951961265497676</v>
+        <v>1.060448738560575</v>
       </c>
       <c r="D22">
-        <v>1.016501393234901</v>
+        <v>1.060998669520466</v>
       </c>
       <c r="E22">
-        <v>1.005357325671334</v>
+        <v>1.065024866596093</v>
       </c>
       <c r="F22">
-        <v>1.005974665921158</v>
+        <v>1.073565804437943</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045705767368472</v>
+        <v>1.053722393629688</v>
       </c>
       <c r="J22">
-        <v>1.02614862405017</v>
+        <v>1.067100098950237</v>
       </c>
       <c r="K22">
-        <v>1.031752892084548</v>
+        <v>1.064613692920313</v>
       </c>
       <c r="L22">
-        <v>1.020823394760988</v>
+        <v>1.068625191857733</v>
       </c>
       <c r="M22">
-        <v>1.021428685465633</v>
+        <v>1.077135352759878</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9986580654236953</v>
+        <v>1.060988814690829</v>
       </c>
       <c r="D23">
-        <v>1.019253146881445</v>
+        <v>1.06143064716365</v>
       </c>
       <c r="E23">
-        <v>1.008509678441689</v>
+        <v>1.065530149842573</v>
       </c>
       <c r="F23">
-        <v>1.009442933948143</v>
+        <v>1.074134826342886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047289719744155</v>
+        <v>1.053928304408475</v>
       </c>
       <c r="J23">
-        <v>1.02879657995213</v>
+        <v>1.067510979975346</v>
       </c>
       <c r="K23">
-        <v>1.034148396096561</v>
+        <v>1.06497767424015</v>
       </c>
       <c r="L23">
-        <v>1.023605470230402</v>
+        <v>1.069062517973675</v>
       </c>
       <c r="M23">
-        <v>1.024521083917642</v>
+        <v>1.077636827000119</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011731788996072</v>
+        <v>1.063110779640251</v>
       </c>
       <c r="D24">
-        <v>1.029658328036703</v>
+        <v>1.063127595571906</v>
       </c>
       <c r="E24">
-        <v>1.020421895339755</v>
+        <v>1.067514824182121</v>
       </c>
       <c r="F24">
-        <v>1.022555941158056</v>
+        <v>1.076371233221114</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053245758466645</v>
+        <v>1.054733899917606</v>
       </c>
       <c r="J24">
-        <v>1.038785594353491</v>
+        <v>1.069123399503704</v>
       </c>
       <c r="K24">
-        <v>1.04318388704231</v>
+        <v>1.066405642866277</v>
       </c>
       <c r="L24">
-        <v>1.03409962609333</v>
+        <v>1.070778472264133</v>
       </c>
       <c r="M24">
-        <v>1.036198198775351</v>
+        <v>1.079606205555335</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02590113834727</v>
+        <v>1.065564688301232</v>
       </c>
       <c r="D25">
-        <v>1.040956979059871</v>
+        <v>1.065089357342455</v>
       </c>
       <c r="E25">
-        <v>1.033344130393982</v>
+        <v>1.069808741361132</v>
       </c>
       <c r="F25">
-        <v>1.036796277987196</v>
+        <v>1.07895895964056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05964669500311</v>
+        <v>1.055658414171002</v>
       </c>
       <c r="J25">
-        <v>1.049587197592041</v>
+        <v>1.070984040247774</v>
       </c>
       <c r="K25">
-        <v>1.052951100977858</v>
+        <v>1.068052596723486</v>
       </c>
       <c r="L25">
-        <v>1.045445969456891</v>
+        <v>1.072758091355677</v>
       </c>
       <c r="M25">
-        <v>1.04884902344756</v>
+        <v>1.081881756323601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_126/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.067515367707383</v>
+        <v>1.036518246747105</v>
       </c>
       <c r="D2">
-        <v>1.066648265962145</v>
+        <v>1.049435467686939</v>
       </c>
       <c r="E2">
-        <v>1.071631246931135</v>
+        <v>1.043033099365119</v>
       </c>
       <c r="F2">
-        <v>1.081017199031097</v>
+        <v>1.04748702412252</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056387605843959</v>
+        <v>1.064397597178015</v>
       </c>
       <c r="J2">
-        <v>1.07245987330346</v>
+        <v>1.057658987294203</v>
       </c>
       <c r="K2">
-        <v>1.069358249899161</v>
+        <v>1.060246512262409</v>
       </c>
       <c r="L2">
-        <v>1.074327906346831</v>
+        <v>1.053923782982109</v>
       </c>
       <c r="M2">
-        <v>1.083689120700721</v>
+        <v>1.058322177041232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068928090650741</v>
+        <v>1.043881346863236</v>
       </c>
       <c r="D3">
-        <v>1.067776926209492</v>
+        <v>1.055320581357806</v>
       </c>
       <c r="E3">
-        <v>1.072950565568603</v>
+        <v>1.049754926222623</v>
       </c>
       <c r="F3">
-        <v>1.082508504673063</v>
+        <v>1.054912102893727</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056912375903674</v>
+        <v>1.067665314686089</v>
       </c>
       <c r="J3">
-        <v>1.073526819397443</v>
+        <v>1.0632432672839</v>
       </c>
       <c r="K3">
-        <v>1.070301762635522</v>
+        <v>1.065291369727179</v>
       </c>
       <c r="L3">
-        <v>1.075462574503107</v>
+        <v>1.059788431297132</v>
       </c>
       <c r="M3">
-        <v>1.084997162449741</v>
+        <v>1.064887466505002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069840582125224</v>
+        <v>1.04850023406183</v>
       </c>
       <c r="D4">
-        <v>1.068505779158424</v>
+        <v>1.059014141529163</v>
       </c>
       <c r="E4">
-        <v>1.073802457860656</v>
+        <v>1.053972296153474</v>
       </c>
       <c r="F4">
-        <v>1.0834720702397</v>
+        <v>1.059574662691894</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057249789916709</v>
+        <v>1.069702349798239</v>
       </c>
       <c r="J4">
-        <v>1.074215097625616</v>
+        <v>1.066739712637899</v>
       </c>
       <c r="K4">
-        <v>1.070910227125935</v>
+        <v>1.068448903226017</v>
       </c>
       <c r="L4">
-        <v>1.076194438545746</v>
+        <v>1.063460202264738</v>
       </c>
       <c r="M4">
-        <v>1.0858416276603</v>
+        <v>1.069003554294548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070223809267358</v>
+        <v>1.050409122570202</v>
       </c>
       <c r="D5">
-        <v>1.068811843006533</v>
+        <v>1.060540969190672</v>
       </c>
       <c r="E5">
-        <v>1.074160170210608</v>
+        <v>1.055715378886235</v>
       </c>
       <c r="F5">
-        <v>1.083876823210908</v>
+        <v>1.061502717102903</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057391127720014</v>
+        <v>1.070541098190744</v>
       </c>
       <c r="J5">
-        <v>1.074503950797301</v>
+        <v>1.068183098554671</v>
       </c>
       <c r="K5">
-        <v>1.071165539234297</v>
+        <v>1.06975208657377</v>
       </c>
       <c r="L5">
-        <v>1.076501559590204</v>
+        <v>1.064975916455161</v>
       </c>
       <c r="M5">
-        <v>1.086196186617422</v>
+        <v>1.070704050369633</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070288132461975</v>
+        <v>1.050727758174436</v>
       </c>
       <c r="D6">
-        <v>1.06886321233133</v>
+        <v>1.060795849232701</v>
       </c>
       <c r="E6">
-        <v>1.074220207063781</v>
+        <v>1.056006344325214</v>
       </c>
       <c r="F6">
-        <v>1.083944763876281</v>
+        <v>1.06182461670206</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05741482907846</v>
+        <v>1.070680919402223</v>
       </c>
       <c r="J6">
-        <v>1.074552421413199</v>
+        <v>1.068423935004169</v>
       </c>
       <c r="K6">
-        <v>1.071208378877077</v>
+        <v>1.069969511753616</v>
       </c>
       <c r="L6">
-        <v>1.076553094219964</v>
+        <v>1.065228818494978</v>
       </c>
       <c r="M6">
-        <v>1.086255692184815</v>
+        <v>1.070987864601882</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069845704326204</v>
+        <v>1.048525867510726</v>
       </c>
       <c r="D7">
-        <v>1.068509870151679</v>
+        <v>1.059034643171924</v>
       </c>
       <c r="E7">
-        <v>1.073807239285193</v>
+        <v>1.053995702620063</v>
       </c>
       <c r="F7">
-        <v>1.083477479856299</v>
+        <v>1.059600549129552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057251680483692</v>
+        <v>1.069713625290371</v>
       </c>
       <c r="J7">
-        <v>1.07421895924976</v>
+        <v>1.066759101570308</v>
       </c>
       <c r="K7">
-        <v>1.070913640524048</v>
+        <v>1.068466410009752</v>
       </c>
       <c r="L7">
-        <v>1.076198544483796</v>
+        <v>1.063480562967512</v>
       </c>
       <c r="M7">
-        <v>1.085846367070904</v>
+        <v>1.069026391758548</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.067993146799554</v>
+        <v>1.039038001341154</v>
       </c>
       <c r="D8">
-        <v>1.067030008455863</v>
+        <v>1.051449001029987</v>
       </c>
       <c r="E8">
-        <v>1.072077492496161</v>
+        <v>1.045333211059329</v>
       </c>
       <c r="F8">
-        <v>1.081521488884435</v>
+        <v>1.050026955011388</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056565400780958</v>
+        <v>1.065518534607883</v>
       </c>
       <c r="J8">
-        <v>1.072820892358421</v>
+        <v>1.059571369470509</v>
       </c>
       <c r="K8">
-        <v>1.069677542046553</v>
+        <v>1.061974402400908</v>
       </c>
       <c r="L8">
-        <v>1.074711861403927</v>
+        <v>1.055932228310181</v>
       </c>
       <c r="M8">
-        <v>1.084131582214221</v>
+        <v>1.060569378648955</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.06471586511701</v>
+        <v>1.021107253769814</v>
       </c>
       <c r="D9">
-        <v>1.064410854184381</v>
+        <v>1.03713205079763</v>
       </c>
       <c r="E9">
-        <v>1.069015413720005</v>
+        <v>1.028970978395076</v>
       </c>
       <c r="F9">
-        <v>1.07806366419784</v>
+        <v>1.031974971056082</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055339506423568</v>
+        <v>1.057488189259882</v>
       </c>
       <c r="J9">
-        <v>1.070340934330664</v>
+        <v>1.045936062052899</v>
       </c>
       <c r="K9">
-        <v>1.067483454796774</v>
+        <v>1.049650102115194</v>
       </c>
       <c r="L9">
-        <v>1.072073923242188</v>
+        <v>1.041610879881232</v>
       </c>
       <c r="M9">
-        <v>1.081094865979734</v>
+        <v>1.044569735774857</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062521931227502</v>
+        <v>1.00818466225662</v>
       </c>
       <c r="D10">
-        <v>1.062656738991819</v>
+        <v>1.026833215224425</v>
       </c>
       <c r="E10">
-        <v>1.066964169941332</v>
+        <v>1.017188782328807</v>
       </c>
       <c r="F10">
-        <v>1.075750511212564</v>
+        <v>1.018995721412213</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054510903166257</v>
+        <v>1.051634082115078</v>
       </c>
       <c r="J10">
-        <v>1.068676265371208</v>
+        <v>1.036077270775785</v>
       </c>
       <c r="K10">
-        <v>1.066009723804426</v>
+        <v>1.040734319171914</v>
       </c>
       <c r="L10">
-        <v>1.070302666590072</v>
+        <v>1.03125447170341</v>
       </c>
       <c r="M10">
-        <v>1.079059849365235</v>
+        <v>1.033030268159185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061569679915808</v>
+        <v>1.002318600035285</v>
       </c>
       <c r="D11">
-        <v>1.061895216553062</v>
+        <v>1.022164423093966</v>
       </c>
       <c r="E11">
-        <v>1.066073527469757</v>
+        <v>1.011843824086482</v>
       </c>
       <c r="F11">
-        <v>1.074746904804482</v>
+        <v>1.013111999783536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054149375934799</v>
+        <v>1.048961606967296</v>
       </c>
       <c r="J11">
-        <v>1.067952672221851</v>
+        <v>1.031595239635178</v>
       </c>
       <c r="K11">
-        <v>1.065368904136723</v>
+        <v>1.036680115380925</v>
       </c>
       <c r="L11">
-        <v>1.069532610462939</v>
+        <v>1.026545787064122</v>
       </c>
       <c r="M11">
-        <v>1.078176070253452</v>
+        <v>1.0277908079922</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061215622603975</v>
+        <v>1.000095003472249</v>
       </c>
       <c r="D12">
-        <v>1.061612049704285</v>
+        <v>1.020395763340298</v>
       </c>
       <c r="E12">
-        <v>1.065742328453263</v>
+        <v>1.009818378069427</v>
       </c>
       <c r="F12">
-        <v>1.07437381186506</v>
+        <v>1.010882994616332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054014673706316</v>
+        <v>1.047946385741389</v>
       </c>
       <c r="J12">
-        <v>1.067683472977029</v>
+        <v>1.02989534312489</v>
       </c>
       <c r="K12">
-        <v>1.065130465984983</v>
+        <v>1.035142373747483</v>
       </c>
       <c r="L12">
-        <v>1.069246105508211</v>
+        <v>1.024759860294289</v>
       </c>
       <c r="M12">
-        <v>1.077847395950543</v>
+        <v>1.02580462212515</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061291585022746</v>
+        <v>1.000574065385436</v>
       </c>
       <c r="D13">
-        <v>1.061672803788888</v>
+        <v>1.020776759260856</v>
       </c>
       <c r="E13">
-        <v>1.0658133888555</v>
+        <v>1.010254719715168</v>
       </c>
       <c r="F13">
-        <v>1.074453855687239</v>
+        <v>1.011363162492475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054043586628528</v>
+        <v>1.048165207201287</v>
       </c>
       <c r="J13">
-        <v>1.067741236449419</v>
+        <v>1.03026161734677</v>
       </c>
       <c r="K13">
-        <v>1.065181630389944</v>
+        <v>1.035473713068973</v>
       </c>
       <c r="L13">
-        <v>1.069307583266171</v>
+        <v>1.02514467443209</v>
       </c>
       <c r="M13">
-        <v>1.077917915910561</v>
+        <v>1.026232538775797</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061540420593539</v>
+        <v>1.002135733676438</v>
       </c>
       <c r="D14">
-        <v>1.061871816120465</v>
+        <v>1.022018947044467</v>
       </c>
       <c r="E14">
-        <v>1.066046158147571</v>
+        <v>1.011677240213982</v>
       </c>
       <c r="F14">
-        <v>1.074716071177982</v>
+        <v>1.012928662113821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054138249892751</v>
+        <v>1.04887816010803</v>
       </c>
       <c r="J14">
-        <v>1.067930428828082</v>
+        <v>1.031455460242766</v>
       </c>
       <c r="K14">
-        <v>1.065349203146411</v>
+        <v>1.036553671694716</v>
       </c>
       <c r="L14">
-        <v>1.069508937542847</v>
+        <v>1.026398934948522</v>
       </c>
       <c r="M14">
-        <v>1.078148910128409</v>
+        <v>1.02762746779292</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061693689923256</v>
+        <v>1.003091878135573</v>
       </c>
       <c r="D15">
-        <v>1.061994393782385</v>
+        <v>1.02277963620485</v>
       </c>
       <c r="E15">
-        <v>1.066189525089611</v>
+        <v>1.012548275071187</v>
       </c>
       <c r="F15">
-        <v>1.074877589602977</v>
+        <v>1.013887323566401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054196519959848</v>
+        <v>1.049314386184905</v>
       </c>
       <c r="J15">
-        <v>1.068046940038118</v>
+        <v>1.032186280606088</v>
       </c>
       <c r="K15">
-        <v>1.065452395852966</v>
+        <v>1.03721476368491</v>
       </c>
       <c r="L15">
-        <v>1.06963293581071</v>
+        <v>1.027166731462088</v>
       </c>
       <c r="M15">
-        <v>1.078291180118932</v>
+        <v>1.02848151279791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062585080579933</v>
+        <v>1.008567941986517</v>
       </c>
       <c r="D16">
-        <v>1.062707236506136</v>
+        <v>1.027138409205077</v>
       </c>
       <c r="E16">
-        <v>1.067023226842337</v>
+        <v>1.017538093337172</v>
       </c>
       <c r="F16">
-        <v>1.075817074448948</v>
+        <v>1.019380327598947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054534838559841</v>
+        <v>1.051808392238689</v>
       </c>
       <c r="J16">
-        <v>1.06872422870491</v>
+        <v>1.036369987144512</v>
       </c>
       <c r="K16">
-        <v>1.066052195835897</v>
+        <v>1.040999078464101</v>
       </c>
       <c r="L16">
-        <v>1.070353706927716</v>
+        <v>1.031561981451295</v>
       </c>
       <c r="M16">
-        <v>1.079118447319322</v>
+        <v>1.033372587118511</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063143614263223</v>
+        <v>1.011927828653624</v>
       </c>
       <c r="D17">
-        <v>1.063153849730672</v>
+        <v>1.02981450560179</v>
       </c>
       <c r="E17">
-        <v>1.067545526862393</v>
+        <v>1.020600603200377</v>
       </c>
       <c r="F17">
-        <v>1.076405847799309</v>
+        <v>1.022752758064608</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054746321566115</v>
+        <v>1.053334730970763</v>
       </c>
       <c r="J17">
-        <v>1.069148324793548</v>
+        <v>1.038935230841302</v>
       </c>
       <c r="K17">
-        <v>1.066427711678792</v>
+        <v>1.043319221236793</v>
       </c>
       <c r="L17">
-        <v>1.070804994939156</v>
+        <v>1.034256819730153</v>
       </c>
       <c r="M17">
-        <v>1.079636667348151</v>
+        <v>1.036373273006379</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063469179712743</v>
+        <v>1.013861795317591</v>
       </c>
       <c r="D18">
-        <v>1.063414161146432</v>
+        <v>1.031355453917956</v>
       </c>
       <c r="E18">
-        <v>1.067849940717616</v>
+        <v>1.022363713088943</v>
       </c>
       <c r="F18">
-        <v>1.076749077367917</v>
+        <v>1.024694695580425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054869412245329</v>
+        <v>1.054211880286489</v>
       </c>
       <c r="J18">
-        <v>1.069395425050571</v>
+        <v>1.040411158932596</v>
       </c>
       <c r="K18">
-        <v>1.066646485109738</v>
+        <v>1.044654044263971</v>
       </c>
       <c r="L18">
-        <v>1.071067925943708</v>
+        <v>1.035807271170672</v>
       </c>
       <c r="M18">
-        <v>1.079938685685195</v>
+        <v>1.038100359139634</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063580152437737</v>
+        <v>1.014516966028066</v>
       </c>
       <c r="D19">
-        <v>1.063502888482465</v>
+        <v>1.031877574671851</v>
       </c>
       <c r="E19">
-        <v>1.067953698374792</v>
+        <v>1.022961053094444</v>
       </c>
       <c r="F19">
-        <v>1.076866077490465</v>
+        <v>1.025352691850528</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054911338358063</v>
+        <v>1.054508789849991</v>
       </c>
       <c r="J19">
-        <v>1.069479634630707</v>
+        <v>1.040911049204563</v>
       </c>
       <c r="K19">
-        <v>1.0667210375091</v>
+        <v>1.045106127762816</v>
       </c>
       <c r="L19">
-        <v>1.071157528360653</v>
+        <v>1.036332395555567</v>
       </c>
       <c r="M19">
-        <v>1.080041623868968</v>
+        <v>1.038685421856217</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.063083711475981</v>
+        <v>1.011570040508692</v>
       </c>
       <c r="D20">
-        <v>1.063105952109838</v>
+        <v>1.029529472219519</v>
       </c>
       <c r="E20">
-        <v>1.067489513369828</v>
+        <v>1.020274448750128</v>
       </c>
       <c r="F20">
-        <v>1.076342697911817</v>
+        <v>1.022393555624723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054723658752446</v>
+        <v>1.053172340938757</v>
       </c>
       <c r="J20">
-        <v>1.069102851047567</v>
+        <v>1.03866212858292</v>
       </c>
       <c r="K20">
-        <v>1.066387449174327</v>
+        <v>1.043072221676743</v>
       </c>
       <c r="L20">
-        <v>1.070756606849202</v>
+        <v>1.033969924659097</v>
       </c>
       <c r="M20">
-        <v>1.079581093227884</v>
+        <v>1.036053747744168</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061467154418255</v>
+        <v>1.001677129945608</v>
       </c>
       <c r="D21">
-        <v>1.061813220377338</v>
+        <v>1.021654131304213</v>
       </c>
       <c r="E21">
-        <v>1.065977623802939</v>
+        <v>1.011259481071419</v>
       </c>
       <c r="F21">
-        <v>1.07463886384923</v>
+        <v>1.012468897330173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054110385405138</v>
+        <v>1.048668851911877</v>
       </c>
       <c r="J21">
-        <v>1.067874728162012</v>
+        <v>1.031104898016206</v>
       </c>
       <c r="K21">
-        <v>1.065299868489595</v>
+        <v>1.036236553366937</v>
       </c>
       <c r="L21">
-        <v>1.06944965681242</v>
+        <v>1.026030633462113</v>
       </c>
       <c r="M21">
-        <v>1.078080899180299</v>
+        <v>1.027217831508736</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060448738560575</v>
+        <v>0.9951961265497671</v>
       </c>
       <c r="D22">
-        <v>1.060998669520466</v>
+        <v>1.016501393234901</v>
       </c>
       <c r="E22">
-        <v>1.065024866596093</v>
+        <v>1.005357325671334</v>
       </c>
       <c r="F22">
-        <v>1.073565804437943</v>
+        <v>1.005974665921158</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053722393629688</v>
+        <v>1.045705767368471</v>
       </c>
       <c r="J22">
-        <v>1.067100098950237</v>
+        <v>1.026148624050169</v>
       </c>
       <c r="K22">
-        <v>1.064613692920313</v>
+        <v>1.031752892084547</v>
       </c>
       <c r="L22">
-        <v>1.068625191857733</v>
+        <v>1.020823394760988</v>
       </c>
       <c r="M22">
-        <v>1.077135352759878</v>
+        <v>1.021428685465633</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060988814690829</v>
+        <v>0.9986580654236945</v>
       </c>
       <c r="D23">
-        <v>1.06143064716365</v>
+        <v>1.019253146881445</v>
       </c>
       <c r="E23">
-        <v>1.065530149842573</v>
+        <v>1.008509678441688</v>
       </c>
       <c r="F23">
-        <v>1.074134826342886</v>
+        <v>1.009442933948142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053928304408475</v>
+        <v>1.047289719744155</v>
       </c>
       <c r="J23">
-        <v>1.067510979975346</v>
+        <v>1.028796579952129</v>
       </c>
       <c r="K23">
-        <v>1.06497767424015</v>
+        <v>1.03414839609656</v>
       </c>
       <c r="L23">
-        <v>1.069062517973675</v>
+        <v>1.023605470230402</v>
       </c>
       <c r="M23">
-        <v>1.077636827000119</v>
+        <v>1.024521083917641</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.063110779640251</v>
+        <v>1.011731788996075</v>
       </c>
       <c r="D24">
-        <v>1.063127595571906</v>
+        <v>1.029658328036706</v>
       </c>
       <c r="E24">
-        <v>1.067514824182121</v>
+        <v>1.020421895339758</v>
       </c>
       <c r="F24">
-        <v>1.076371233221114</v>
+        <v>1.022555941158059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054733899917606</v>
+        <v>1.053245758466647</v>
       </c>
       <c r="J24">
-        <v>1.069123399503704</v>
+        <v>1.038785594353494</v>
       </c>
       <c r="K24">
-        <v>1.066405642866277</v>
+        <v>1.043183887042313</v>
       </c>
       <c r="L24">
-        <v>1.070778472264133</v>
+        <v>1.034099626093332</v>
       </c>
       <c r="M24">
-        <v>1.079606205555335</v>
+        <v>1.036198198775354</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065564688301232</v>
+        <v>1.025901138347269</v>
       </c>
       <c r="D25">
-        <v>1.065089357342455</v>
+        <v>1.04095697905987</v>
       </c>
       <c r="E25">
-        <v>1.069808741361132</v>
+        <v>1.03334413039398</v>
       </c>
       <c r="F25">
-        <v>1.07895895964056</v>
+        <v>1.036796277987195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055658414171002</v>
+        <v>1.059646695003108</v>
       </c>
       <c r="J25">
-        <v>1.070984040247774</v>
+        <v>1.04958719759204</v>
       </c>
       <c r="K25">
-        <v>1.068052596723486</v>
+        <v>1.052951100977858</v>
       </c>
       <c r="L25">
-        <v>1.072758091355677</v>
+        <v>1.04544596945689</v>
       </c>
       <c r="M25">
-        <v>1.081881756323601</v>
+        <v>1.048849023447559</v>
       </c>
     </row>
   </sheetData>
